--- a/biology/Botanique/Martin_Wormskjöld/Martin_Wormskjöld.xlsx
+++ b/biology/Botanique/Martin_Wormskjöld/Martin_Wormskjöld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Martin_Wormskj%C3%B6ld</t>
+          <t>Martin_Wormskjöld</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin Wormskjöld, ou Morten Wormskjöld, né le 16 janvier 1783 à Copenhague et mort le 22 novembre 1845 à Gaunø, est un botaniste danois qui fut aussi phycologue et mycologue. Il effectua plusieurs expéditions au Groenland entre 1812 et 1815. En 1816, il participa à l'expédition d'Otto von Kotzebue au Kamtchatka, où il demeura pendant deux ans. Il en rapporta de nombreux spécimens botaniques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Martin_Wormskj%C3%B6ld</t>
+          <t>Martin_Wormskjöld</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(Brassicaceae) Draba wormskioldii Fisch. ex Spreng.[1]
-(Cyperaceae) Carex wormskioldiana Hornem.[2]
-(Cyperaceae) Physiglochis wormskioldii (Drejer) Raf.[3]
-(Fabaceae) Lupinaster wormskioldii C.Presl[4]
-(Lythraceae) Ammannia wormskioldii Fisch. &amp; C.A.Mey.[5]
-(Saxifragaceae) Saxifraga wormskioldii Fisch. ex DC.[6]
-(Scrophulariaceae) Veronica wormskjoldii Roem. &amp; Schult.[7]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Brassicaceae) Draba wormskioldii Fisch. ex Spreng.
+(Cyperaceae) Carex wormskioldiana Hornem.
+(Cyperaceae) Physiglochis wormskioldii (Drejer) Raf.
+(Fabaceae) Lupinaster wormskioldii C.Presl
+(Lythraceae) Ammannia wormskioldii Fisch. &amp; C.A.Mey.
+(Saxifragaceae) Saxifraga wormskioldii Fisch. ex DC.
+(Scrophulariaceae) Veronica wormskjoldii Roem. &amp; Schult.</t>
         </is>
       </c>
     </row>
